--- a/Ejemplo Desktop.xlsx
+++ b/Ejemplo Desktop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\src\ControlInvetario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE713688-E75C-4A38-8588-5D46AEBFBE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5A475-D873-471C-AB65-67A3AF239126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{F4BDC038-3A87-4ADE-A931-B0F23689DAE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
   <si>
     <t>suc</t>
   </si>
@@ -229,6 +229,36 @@
   </si>
   <si>
     <t>541690b4dvd0yj</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>2CTZZF1</t>
+  </si>
+  <si>
+    <t>OPTIPLEX 755</t>
+  </si>
+  <si>
+    <t>CORE 2 DUO</t>
+  </si>
+  <si>
+    <t>2.3 GHZ</t>
+  </si>
+  <si>
+    <t>320 GB</t>
+  </si>
+  <si>
+    <t>WD3200AAJS'08L7A0</t>
+  </si>
+  <si>
+    <t>3C7005901551</t>
+  </si>
+  <si>
+    <t>CN0XK3767324582O0729</t>
   </si>
 </sst>
 </file>
@@ -637,528 +667,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3B5123-1B1E-47FC-BB36-B1077ABADA21}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q11"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E2" s="3">
         <v>34749</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3">
+      <c r="E3" s="3">
         <v>34758</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3">
+      <c r="E4" s="3">
         <v>81802</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
+      <c r="E5" s="3">
         <v>106049</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3">
+      <c r="E6" s="3">
         <v>257627</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3">
+      <c r="E7" s="3">
         <v>267048</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="S7" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="E8" s="3">
         <v>267197</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="S8" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3">
+      <c r="E9" s="3">
         <v>267256</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3">
+      <c r="E10" s="3">
         <v>267276</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="S10" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3">
+      <c r="E11" s="3">
         <v>270066</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="3">
+      <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>12082021</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>292483</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
